--- a/data/trans_dic/P23_2_R-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P23_2_R-Estudios-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:N14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,12 +527,15 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que recibe menos o mucha menos ayuda de la que desea en asuntos relacionados con su casa</t>
+          <t>Población que recibe menos o mucha menos ayuda de la que desea en asuntos relacionados con su casa (tasa de respuesta: 98,54%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -542,20 +546,23 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
       <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
         <is>
           <t>Total</t>
         </is>
       </c>
-      <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +584,47 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
         </is>
       </c>
     </row>
@@ -618,6 +640,9 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +657,62 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>16,04%</t>
+          <t>14,4%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>18,27%</t>
+          <t>21,16%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>14,22%</t>
+          <t>14,54%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>19,8%</t>
+          <t>16,21%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>34,03%</t>
+          <t>21,89%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>18,72%</t>
+          <t>35,74%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>18,09%</t>
+          <t>21,22%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>26,99%</t>
+          <t>53,79%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>16,81%</t>
+          <t>18,33%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>29,0%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>18,03%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>36,51%</t>
         </is>
       </c>
     </row>
@@ -685,47 +725,62 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>9,11; 25,5</t>
+          <t>5,04; 28,08</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>9,66; 27,2</t>
+          <t>7,86; 38,85</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>8,05; 24,08</t>
+          <t>4,38; 29,58</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>13,82; 28,08</t>
+          <t>3,89; 30,67</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>25,62; 43,89</t>
+          <t>12,39; 34,48</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>10,6; 25,94</t>
+          <t>24,15; 50,48</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>13,15; 23,99</t>
+          <t>12,04; 34,11</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>20,34; 33,52</t>
+          <t>37,53; 72,5</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>11,35; 22,7</t>
+          <t>10,78; 27,48</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>18,29; 40,98</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>10,39; 26,42</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>22,65; 50,95</t>
         </is>
       </c>
     </row>
@@ -742,47 +797,62 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>15,47%</t>
+          <t>16,72%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>14,92%</t>
+          <t>14,56%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>15,7%</t>
+          <t>16,34%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>29,68%</t>
+          <t>29,01%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>28,96%</t>
+          <t>34,15%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>24,11%</t>
+          <t>33,87%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>22,83%</t>
+          <t>26,4%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>22,06%</t>
+          <t>30,19%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>19,79%</t>
+          <t>25,8%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>24,52%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>21,23%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>29,59%</t>
         </is>
       </c>
     </row>
@@ -795,47 +865,62 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>11,45; 20,42</t>
+          <t>10,97; 23,4</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>9,92; 22,51</t>
+          <t>9,68; 21,38</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>10,07; 27,09</t>
+          <t>10,2; 28,82</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>24,84; 35,43</t>
+          <t>20,83; 42,42</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>24,03; 34,55</t>
+          <t>27,27; 41,42</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>19,49; 29,56</t>
+          <t>25,66; 40,8</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>19,27; 26,73</t>
+          <t>20,09; 33,97</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>18,44; 26,21</t>
+          <t>24,05; 37,8</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>16,11; 25,88</t>
+          <t>20,79; 30,55</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>20,19; 29,45</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>16,89; 29,58</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>24,11; 37,06</t>
         </is>
       </c>
     </row>
@@ -852,47 +937,62 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>12,91%</t>
+          <t>7,93%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>11,88%</t>
+          <t>14,44%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>15,04%</t>
+          <t>14,14%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>20,74%</t>
+          <t>19,14%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>20,34%</t>
+          <t>18,54%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>22,44%</t>
+          <t>19,39%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>17,15%</t>
+          <t>21,81%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>16,53%</t>
+          <t>20,8%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>18,94%</t>
+          <t>13,95%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>17,29%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>18,33%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>20,03%</t>
         </is>
       </c>
     </row>
@@ -905,54 +1005,69 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>8,23; 18,4</t>
+          <t>4,1; 13,96</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>7,57; 16,7</t>
+          <t>8,43; 20,94</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>10,21; 22,05</t>
+          <t>8,6; 23,8</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>15,87; 26,8</t>
+          <t>12,48; 28,65</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>15,78; 25,79</t>
+          <t>13,02; 24,99</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>17,63; 27,74</t>
+          <t>13,92; 26,18</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>13,5; 20,97</t>
+          <t>16,26; 28,37</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>13,43; 20,36</t>
+          <t>15,12; 27,4</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>15,46; 23,03</t>
+          <t>10,33; 18,78</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>13,52; 22,14</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>13,82; 23,77</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>15,29; 25,92</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +1077,62 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>14,72%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>14,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>15,27%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>24,79%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>26,77%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>22,48%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>20,06%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>20,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>18,98%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1145,1431 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>11,73; 18,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>11,21; 19,32</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>11,4; 20,2</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>21,71; 28,4</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>23,38; 30,14</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>18,89; 25,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>17,72; 22,37</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>18,77; 23,85</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>16,51; 22,2</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>13,13%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>15,44%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>15,3%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>23,51%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>26,01%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>28,11%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>23,79%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>31,19%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>20,08%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>22,31%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>19,67%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>27,47%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>9,64; 17,52</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>11,52; 20,2</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>10,89; 23,04</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>17,99; 32,04</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>21,5; 30,41</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>23,68; 32,43</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>19,35; 28,0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>26,34; 38,15</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>17,18; 23,25</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>19,3; 25,99</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>16,37; 23,68</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>23,49; 32,43</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A10:A11"/>
     <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
     <mergeCell ref="A6:A7"/>
-    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="K1:N1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N19"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que recibe menos o mucha menos ayuda de la que desea en asuntos relacionados con su casa (tasa de respuesta: 98,54%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="n"/>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Hasta primaria</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>9.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>12.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>26.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>19.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>18248</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>20371</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>16024</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>28288</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>30665</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>40002</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>25537</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>110277</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>48913</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>60373</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>41561</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>138565</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>6389; 35577</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>7564; 37401</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>4825; 32598</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>6797; 53530</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>17367; 48316</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>27038; 56510</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>14493; 41050</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>76956; 148652</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>28773; 73307</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>38089; 85322</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>23958; 60904</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>85973; 193389</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Secundaria o FP grado sup</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>25.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>22.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>65.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>63.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>90.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>85.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>95.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>71019</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>50244</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>63151</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>146122</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>157872</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>124336</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>96546</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>146117</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>228891</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>174579</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>159697</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>292238</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>46580; 99396</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>33383; 73748</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>39420; 111359</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>104896; 213638</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>126090; 191485</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>94184; 149744</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>73451; 124201</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>116416; 182974</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>184451; 271025</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>143791; 209685</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>127010; 222427</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>238089; 366052</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Estudios universitarios o más</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>10.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>17.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>31.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>41.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>54.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>58.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>25782</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>36186</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>38415</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>65727</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>78957</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>66017</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>71414</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>83123</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>104739</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>102203</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>109829</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>148850</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>13323; 45383</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>21129; 52476</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>23371; 64670</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>42851; 98418</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>55459; 106465</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>47391; 89118</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>53258; 92882</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>60416; 109472</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>77603; 141022</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>79905; 130863</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>82787; 142433</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>113596; 192597</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>No Pertenece a Medición</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C16" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="D16" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="E16" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="F16" s="2" t="inlineStr">
+        <is>
+          <t>71.0</t>
+        </is>
+      </c>
+      <c r="G16" s="2" t="inlineStr">
+        <is>
+          <t>108.0</t>
+        </is>
+      </c>
+      <c r="H16" s="2" t="inlineStr">
+        <is>
+          <t>115.0</t>
+        </is>
+      </c>
+      <c r="I16" s="2" t="inlineStr">
+        <is>
+          <t>99.0</t>
+        </is>
+      </c>
+      <c r="J16" s="2" t="inlineStr">
+        <is>
+          <t>113.0</t>
+        </is>
+      </c>
+      <c r="K16" s="2" t="inlineStr">
+        <is>
+          <t>150.0</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>163.0</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>142.0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>184.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n"/>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C17" s="2" t="inlineStr">
+        <is>
+          <t>115049</t>
+        </is>
+      </c>
+      <c r="D17" s="2" t="inlineStr">
+        <is>
+          <t>106800</t>
+        </is>
+      </c>
+      <c r="E17" s="2" t="inlineStr">
+        <is>
+          <t>117591</t>
+        </is>
+      </c>
+      <c r="F17" s="2" t="inlineStr">
+        <is>
+          <t>240136</t>
+        </is>
+      </c>
+      <c r="G17" s="2" t="inlineStr">
+        <is>
+          <t>267494</t>
+        </is>
+      </c>
+      <c r="H17" s="2" t="inlineStr">
+        <is>
+          <t>230355</t>
+        </is>
+      </c>
+      <c r="I17" s="2" t="inlineStr">
+        <is>
+          <t>193496</t>
+        </is>
+      </c>
+      <c r="J17" s="2" t="inlineStr">
+        <is>
+          <t>339516</t>
+        </is>
+      </c>
+      <c r="K17" s="2" t="inlineStr">
+        <is>
+          <t>382544</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>337155</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>311087</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>579653</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n"/>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C18" s="2" t="inlineStr">
+        <is>
+          <t>84444; 153527</t>
+        </is>
+      </c>
+      <c r="D18" s="2" t="inlineStr">
+        <is>
+          <t>79720; 139763</t>
+        </is>
+      </c>
+      <c r="E18" s="2" t="inlineStr">
+        <is>
+          <t>83681; 177027</t>
+        </is>
+      </c>
+      <c r="F18" s="2" t="inlineStr">
+        <is>
+          <t>183832; 327340</t>
+        </is>
+      </c>
+      <c r="G18" s="2" t="inlineStr">
+        <is>
+          <t>221083; 312757</t>
+        </is>
+      </c>
+      <c r="H18" s="2" t="inlineStr">
+        <is>
+          <t>194060; 265731</t>
+        </is>
+      </c>
+      <c r="I18" s="2" t="inlineStr">
+        <is>
+          <t>157370; 227735</t>
+        </is>
+      </c>
+      <c r="J18" s="2" t="inlineStr">
+        <is>
+          <t>286777; 415333</t>
+        </is>
+      </c>
+      <c r="K18" s="2" t="inlineStr">
+        <is>
+          <t>327285; 442906</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>291672; 392730</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>259012; 374502</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>495773; 684272</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía (Panel 1 en Medición 4)</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="9">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="A16:A18"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
